--- a/data/talents.xlsx
+++ b/data/talents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\84694\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\82763\Desktop\lifeRestart\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F33440-1349-49EC-8228-3642668C2CDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89DE5BD8-5D7B-4FDF-8293-45932498C85B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="talents" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="473">
   <si>
     <t>序号</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -1815,6 +1815,30 @@
   </si>
   <si>
     <t>不知道有什么用……</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇怪的体质</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总感觉身体有哪里不对</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>精致的小盒子</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>家里收藏着一个精致的小盒子，但是打不开</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>哦豁豁</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>初始可用属性点+20，全属性+3</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2219,32 +2243,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q133"/>
+  <dimension ref="A1:Q136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="2" topLeftCell="D129" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane xSplit="3" ySplit="2" topLeftCell="D130" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="C135" sqref="C135"/>
+      <selection pane="bottomRight" activeCell="L136" sqref="L136"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="25.44140625" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="25.5" defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.44140625" style="1"/>
-    <col min="2" max="2" width="27.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="1"/>
+    <col min="2" max="2" width="27.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="33" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
-    <col min="7" max="11" width="13.5546875" style="1" customWidth="1"/>
-    <col min="12" max="14" width="18.88671875" style="6" customWidth="1"/>
-    <col min="15" max="15" width="19.33203125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="21.88671875" style="1" customWidth="1"/>
-    <col min="17" max="17" width="19.109375" style="1" customWidth="1"/>
-    <col min="18" max="16384" width="25.44140625" style="1"/>
+    <col min="4" max="4" width="20.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.375" style="1" customWidth="1"/>
+    <col min="7" max="11" width="13.5" style="1" customWidth="1"/>
+    <col min="12" max="14" width="18.875" style="6" customWidth="1"/>
+    <col min="15" max="15" width="19.375" style="1" customWidth="1"/>
+    <col min="16" max="16" width="21.875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="19.125" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="25.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="2" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>220</v>
       </c>
@@ -2297,7 +2321,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="3" customFormat="1" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -2350,7 +2374,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2364,7 +2388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -2378,7 +2402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2428,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2427,7 +2451,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2441,7 +2465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>18</v>
       </c>
@@ -2458,7 +2482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2475,7 +2499,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>20</v>
       </c>
@@ -2492,7 +2516,7 @@
         <v>-3</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>21</v>
       </c>
@@ -2509,7 +2533,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -2532,7 +2556,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -2546,7 +2570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -2569,7 +2593,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -2592,7 +2616,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>26</v>
       </c>
@@ -2618,7 +2642,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>27</v>
       </c>
@@ -2632,7 +2656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
@@ -2646,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>29</v>
       </c>
@@ -2660,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>30</v>
       </c>
@@ -2689,7 +2713,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>31</v>
       </c>
@@ -2706,7 +2730,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>32</v>
       </c>
@@ -2723,7 +2747,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>33</v>
       </c>
@@ -2743,7 +2767,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>34</v>
       </c>
@@ -2757,7 +2781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>35</v>
       </c>
@@ -2786,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>36</v>
       </c>
@@ -2809,7 +2833,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>37</v>
       </c>
@@ -2835,7 +2859,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>38</v>
       </c>
@@ -2852,7 +2876,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>39</v>
       </c>
@@ -2869,7 +2893,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>40</v>
       </c>
@@ -2883,7 +2907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>41</v>
       </c>
@@ -2897,7 +2921,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>42</v>
       </c>
@@ -2911,7 +2935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>43</v>
       </c>
@@ -2928,7 +2952,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>44</v>
       </c>
@@ -2957,7 +2981,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>45</v>
       </c>
@@ -2974,7 +2998,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>46</v>
       </c>
@@ -2991,7 +3015,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -3008,7 +3032,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -3025,7 +3049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -3039,7 +3063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>50</v>
       </c>
@@ -3053,7 +3077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>51</v>
       </c>
@@ -3067,7 +3091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>52</v>
       </c>
@@ -3081,7 +3105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>53</v>
       </c>
@@ -3098,7 +3122,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>54</v>
       </c>
@@ -3112,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>55</v>
       </c>
@@ -3126,7 +3150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>56</v>
       </c>
@@ -3140,7 +3164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>57</v>
       </c>
@@ -3154,7 +3178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>58</v>
       </c>
@@ -3171,7 +3195,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>59</v>
       </c>
@@ -3185,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>60</v>
       </c>
@@ -3199,7 +3223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>61</v>
       </c>
@@ -3219,7 +3243,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>62</v>
       </c>
@@ -3239,7 +3263,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>63</v>
       </c>
@@ -3262,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>64</v>
       </c>
@@ -3282,7 +3306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>65</v>
       </c>
@@ -3302,7 +3326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>66</v>
       </c>
@@ -3322,7 +3346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>67</v>
       </c>
@@ -3342,7 +3366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>68</v>
       </c>
@@ -3362,7 +3386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>69</v>
       </c>
@@ -3382,7 +3406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>70</v>
       </c>
@@ -3402,7 +3426,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>71</v>
       </c>
@@ -3422,7 +3446,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>72</v>
       </c>
@@ -3442,7 +3466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>73</v>
       </c>
@@ -3462,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>74</v>
       </c>
@@ -3482,7 +3506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>75</v>
       </c>
@@ -3499,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>76</v>
       </c>
@@ -3516,7 +3540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>77</v>
       </c>
@@ -3530,7 +3554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>78</v>
       </c>
@@ -3550,7 +3574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>79</v>
       </c>
@@ -3570,7 +3594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>80</v>
       </c>
@@ -3590,7 +3614,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>81</v>
       </c>
@@ -3610,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>82</v>
       </c>
@@ -3630,7 +3654,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>83</v>
       </c>
@@ -3644,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>84</v>
       </c>
@@ -3658,7 +3682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>85</v>
       </c>
@@ -3672,7 +3696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>86</v>
       </c>
@@ -3692,7 +3716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>87</v>
       </c>
@@ -3712,7 +3736,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>88</v>
       </c>
@@ -3732,7 +3756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>89</v>
       </c>
@@ -3752,7 +3776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:10" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>90</v>
       </c>
@@ -3772,7 +3796,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>91</v>
       </c>
@@ -3792,7 +3816,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>92</v>
       </c>
@@ -3812,7 +3836,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>93</v>
       </c>
@@ -3841,7 +3865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>94</v>
       </c>
@@ -3870,7 +3894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>95</v>
       </c>
@@ -3899,7 +3923,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>96</v>
       </c>
@@ -3922,7 +3946,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>97</v>
       </c>
@@ -3945,7 +3969,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>98</v>
       </c>
@@ -3965,7 +3989,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>99</v>
       </c>
@@ -3985,7 +4009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>100</v>
       </c>
@@ -4005,7 +4029,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>101</v>
       </c>
@@ -4025,7 +4049,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>102</v>
       </c>
@@ -4054,7 +4078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>103</v>
       </c>
@@ -4083,7 +4107,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>104</v>
       </c>
@@ -4112,7 +4136,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>105</v>
       </c>
@@ -4132,7 +4156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>106</v>
       </c>
@@ -4149,7 +4173,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>107</v>
       </c>
@@ -4178,7 +4202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>108</v>
       </c>
@@ -4207,7 +4231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>109</v>
       </c>
@@ -4236,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>110</v>
       </c>
@@ -4265,7 +4289,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>111</v>
       </c>
@@ -4285,7 +4309,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>112</v>
       </c>
@@ -4305,7 +4329,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>113</v>
       </c>
@@ -4337,7 +4361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>114</v>
       </c>
@@ -4369,7 +4393,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>115</v>
       </c>
@@ -4386,7 +4410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>116</v>
       </c>
@@ -4403,7 +4427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>117</v>
       </c>
@@ -4420,7 +4444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>118</v>
       </c>
@@ -4434,7 +4458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>119</v>
       </c>
@@ -4448,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>120</v>
       </c>
@@ -4462,7 +4486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>121</v>
       </c>
@@ -4476,7 +4500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>122</v>
       </c>
@@ -4490,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>123</v>
       </c>
@@ -4504,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>124</v>
       </c>
@@ -4518,7 +4542,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>125</v>
       </c>
@@ -4550,7 +4574,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>126</v>
       </c>
@@ -4567,7 +4591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>127</v>
       </c>
@@ -4581,7 +4605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>128</v>
       </c>
@@ -4595,7 +4619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>129</v>
       </c>
@@ -4609,7 +4633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>130</v>
       </c>
@@ -4623,7 +4647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>416</v>
       </c>
@@ -4637,7 +4661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>417</v>
       </c>
@@ -4651,7 +4675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>418</v>
       </c>
@@ -4665,7 +4689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>419</v>
       </c>
@@ -4691,7 +4715,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>420</v>
       </c>
@@ -4705,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>421</v>
       </c>
@@ -4719,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>422</v>
       </c>
@@ -4733,7 +4757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:17" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>423</v>
       </c>
@@ -4747,7 +4771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>424</v>
       </c>
@@ -4761,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>425</v>
       </c>
@@ -4775,7 +4799,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>445</v>
       </c>
@@ -4789,7 +4813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>446</v>
       </c>
@@ -4803,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:5" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>464</v>
       </c>
@@ -4815,6 +4839,75 @@
       </c>
       <c r="E133" s="1">
         <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1">
+        <v>9999</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C134" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="E134" s="1">
+        <v>3</v>
+      </c>
+      <c r="J134" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>9998</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C135" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="E135" s="1">
+        <v>3</v>
+      </c>
+      <c r="J135" s="1">
+        <v>15</v>
+      </c>
+      <c r="K135" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="1">
+        <v>9997</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="C136" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="E136" s="1">
+        <v>3</v>
+      </c>
+      <c r="F136" s="1">
+        <v>20</v>
+      </c>
+      <c r="G136" s="1">
+        <v>3</v>
+      </c>
+      <c r="H136" s="1">
+        <v>3</v>
+      </c>
+      <c r="I136" s="1">
+        <v>3</v>
+      </c>
+      <c r="J136" s="1">
+        <v>3</v>
+      </c>
+      <c r="K136" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
